--- a/Excel/Charts.xlsx
+++ b/Excel/Charts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashwi\Documents\LighthouseLabs\Data Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashwi\Documents\Data Analytics\Portfolio\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D2022C-545E-40B8-A787-6EDF57A4F86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E22229-5B1B-4C11-B5D1-1BA9437F8254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="465" windowWidth="13920" windowHeight="14925" tabRatio="602" firstSheet="36" activeTab="38" xr2:uid="{2961403B-B9B9-456B-86E5-F4A21B6AF6E3}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="602" firstSheet="7" activeTab="13" xr2:uid="{2961403B-B9B9-456B-86E5-F4A21B6AF6E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Central Tendency" sheetId="1" r:id="rId1"/>
@@ -41,20 +41,9 @@
     <sheet name="Dynamic Maps" sheetId="44" r:id="rId26"/>
     <sheet name="Stacked Area" sheetId="45" r:id="rId27"/>
     <sheet name="Conditional Format" sheetId="49" r:id="rId28"/>
-    <sheet name="Advanced Charts" sheetId="50" r:id="rId29"/>
-    <sheet name="Linux Commands" sheetId="53" r:id="rId30"/>
-    <sheet name="GitHub (Terminology)" sheetId="60" r:id="rId31"/>
-    <sheet name="GitHub (Process Commands)" sheetId="61" r:id="rId32"/>
-    <sheet name="GitHub (Install &amp; Configure)" sheetId="51" r:id="rId33"/>
-    <sheet name="GitHub (Create Repository)" sheetId="52" r:id="rId34"/>
-    <sheet name="GitHub (Create Remote Repo)" sheetId="54" r:id="rId35"/>
-    <sheet name="GitHubt (Forks &amp; Clones)" sheetId="55" r:id="rId36"/>
-    <sheet name="GitHub (Branch)" sheetId="56" r:id="rId37"/>
-    <sheet name="GitHub (Merge)" sheetId="58" r:id="rId38"/>
-    <sheet name="Sheet19" sheetId="59" r:id="rId39"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId40"/>
+    <externalReference r:id="rId29"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">' Cleaning Data (Duplicates)'!$A$98:$C$117</definedName>
@@ -111,7 +100,7 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId41"/>
+    <pivotCache cacheId="0" r:id="rId30"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -130,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1834" uniqueCount="1042">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="761">
   <si>
     <t>Mean</t>
   </si>
@@ -3205,976 +3194,6 @@
   <si>
     <t>https://www.youtube.com/watch?v=XHT4paRaY4g</t>
   </si>
-  <si>
-    <t>https://www.excelcampus.com/charts/10-advanced-charts/</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/@LeilaGharani/videos</t>
-  </si>
-  <si>
-    <t>Installation</t>
-  </si>
-  <si>
-    <t>https://git-scm.com/book/en/v2/Getting-Started-Installing-Git</t>
-  </si>
-  <si>
-    <t>Configure</t>
-  </si>
-  <si>
-    <t>Run the following command, making sure to use the full name associated with your GitHub account.</t>
-  </si>
-  <si>
-    <t>SSH Keys</t>
-  </si>
-  <si>
-    <t>Terminal</t>
-  </si>
-  <si>
-    <t>cd ~/.ssh</t>
-  </si>
-  <si>
-    <t>ls -al</t>
-  </si>
-  <si>
-    <t>Check the directory listing to see if you have files named either id_rsa.pub or id_dsa.pub. If you don't have either of those files, follow the steps in Configuring a New Key below. Otherwise, skip to ahead to Add Your Public Key to GitHub below</t>
-  </si>
-  <si>
-    <t>Configuring a New Key</t>
-  </si>
-  <si>
-    <t>eval `ssh-agent -s`</t>
-  </si>
-  <si>
-    <t>Leave it blank (just hit enter without typing any other characters), as demonstrated below.</t>
-  </si>
-  <si>
-    <t>ssh-add ~/.ssh/id_rsa</t>
-  </si>
-  <si>
-    <t>Adding Your Public Key to GitHub</t>
-  </si>
-  <si>
-    <t>cat ~/.ssh/id_rsa.pub</t>
-  </si>
-  <si>
-    <t>Account Settings</t>
-  </si>
-  <si>
-    <t>Title field, add a descriptive label for the new key</t>
-  </si>
-  <si>
-    <t>Paste your key into the "Key" field.</t>
-  </si>
-  <si>
-    <t>Click Add key.</t>
-  </si>
-  <si>
-    <t>SSH keys (left toolbar) &gt; Add SSH key</t>
-  </si>
-  <si>
-    <t>The Simple Guide to Git</t>
-  </si>
-  <si>
-    <t>The Git Cheat Sheet</t>
-  </si>
-  <si>
-    <t>http://rogerdudler.github.io/git-guide/</t>
-  </si>
-  <si>
-    <t>http://rogerdudler.github.io/git-guide/files/git_cheat_sheet.pdf</t>
-  </si>
-  <si>
-    <r>
-      <t>git config --global user.email</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 'your@email.com'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">git config --global user.name </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Your Name'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ssh-keygen -t rsa -C </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"your_email@example.com"</t>
-    </r>
-  </si>
-  <si>
-    <t>Step: Create a Repository</t>
-  </si>
-  <si>
-    <t>Make a New Folder</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">mkdir </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hello-world</t>
-    </r>
-  </si>
-  <si>
-    <t>go into that folder:</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">cd </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hello-world</t>
-    </r>
-  </si>
-  <si>
-    <t>create a new Git instance for a project:</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">get </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>init</t>
-    </r>
-  </si>
-  <si>
-    <t>cd &lt;foldername&gt;</t>
-  </si>
-  <si>
-    <t>mkdir &lt;folder&gt;</t>
-  </si>
-  <si>
-    <t>ls</t>
-  </si>
-  <si>
-    <t>Verify Git repository</t>
-  </si>
-  <si>
-    <t>git status</t>
-  </si>
-  <si>
-    <t>list items in folder</t>
-  </si>
-  <si>
-    <t>cd</t>
-  </si>
-  <si>
-    <t>Change directory</t>
-  </si>
-  <si>
-    <t>List files and directories in current directory</t>
-  </si>
-  <si>
-    <t>pwd</t>
-  </si>
-  <si>
-    <t>Display the path of the current directory.</t>
-  </si>
-  <si>
-    <t>touch</t>
-  </si>
-  <si>
-    <t>Create a file</t>
-  </si>
-  <si>
-    <t>mkdir</t>
-  </si>
-  <si>
-    <t>Create a directory</t>
-  </si>
-  <si>
-    <t>rm</t>
-  </si>
-  <si>
-    <t>remove a file or directory.</t>
-  </si>
-  <si>
-    <t>Warning: deleting a file or directory with this command is permanent!</t>
-  </si>
-  <si>
-    <t>cp</t>
-  </si>
-  <si>
-    <t>Copy a file or directory</t>
-  </si>
-  <si>
-    <t>mv</t>
-  </si>
-  <si>
-    <t>Move or rename a file or directory.</t>
-  </si>
-  <si>
-    <t>echo</t>
-  </si>
-  <si>
-    <t>Print text to STDOUT.</t>
-  </si>
-  <si>
-    <t>cat</t>
-  </si>
-  <si>
-    <t>Display contents of a file</t>
-  </si>
-  <si>
-    <t>more</t>
-  </si>
-  <si>
-    <t>Display contents of a file, starting at the top and letting the user scroll down</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>Display contents of a file in an even more interactive way</t>
-  </si>
-  <si>
-    <t>head</t>
-  </si>
-  <si>
-    <t>Display the first part of a file</t>
-  </si>
-  <si>
-    <t>tail</t>
-  </si>
-  <si>
-    <t>Display the last part of a file</t>
-  </si>
-  <si>
-    <t>man</t>
-  </si>
-  <si>
-    <t>Display documentation about a command</t>
-  </si>
-  <si>
-    <t>Create a new text file</t>
-  </si>
-  <si>
-    <t>touch &lt;readme&gt;.txt</t>
-  </si>
-  <si>
-    <t>E.g., Step: Create a New File</t>
-  </si>
-  <si>
-    <t>Step: Status, Add and Commit Changes</t>
-  </si>
-  <si>
-    <t>Check status of respository (shows changes)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Add created file to files for </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>committing</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">git add </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>readme.txt</t>
-    </r>
-  </si>
-  <si>
-    <t>Commit Changes to respository w description</t>
-  </si>
-  <si>
-    <t>git commit -m "&lt;your commit message&gt;"</t>
-  </si>
-  <si>
-    <t>See differences in file changes</t>
-  </si>
-  <si>
-    <t>git difference</t>
-  </si>
-  <si>
-    <t>git add &lt;filename&gt;</t>
-  </si>
-  <si>
-    <t>Add all file changes:</t>
-  </si>
-  <si>
-    <t>git add .</t>
-  </si>
-  <si>
-    <t>Add a Username to Git</t>
-  </si>
-  <si>
-    <t>http://github.com/</t>
-  </si>
-  <si>
-    <t>Step: Connect your Local to your Remote</t>
-  </si>
-  <si>
-    <t>Step: Create a Remote Repository</t>
-  </si>
-  <si>
-    <t>Web</t>
-  </si>
-  <si>
-    <t>Step: Push Work to your Remote</t>
-  </si>
-  <si>
-    <t>git push origin master</t>
-  </si>
-  <si>
-    <t>(Add remote connections)</t>
-  </si>
-  <si>
-    <t>git remote add &lt;REMOTENAME&gt; &lt;URL&gt;</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">git remote add </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>origin</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;URLFROMGITHUB&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>Set a URL to remote</t>
-  </si>
-  <si>
-    <t>git remote set-url &lt;REMOTENAME&gt; &lt;URL&gt;</t>
-  </si>
-  <si>
-    <t>View Remote Connections</t>
-  </si>
-  <si>
-    <t>git remote -v</t>
-  </si>
-  <si>
-    <t>Forking:</t>
-  </si>
-  <si>
-    <t>reating a copy of it on your GitHub account</t>
-  </si>
-  <si>
-    <t>used for creating your own version of a project or contributing back fixes or features to the original project.</t>
-  </si>
-  <si>
-    <t>fork is clone (aka copy) it from GitHub to your computer to work on locally.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URL </t>
-  </si>
-  <si>
-    <t>Step: Fork Patchwork Repository</t>
-  </si>
-  <si>
-    <t> github.com/jlord/patchwork</t>
-  </si>
-  <si>
-    <t>e.g.,</t>
-  </si>
-  <si>
-    <t>Step: Clone Fork Locally</t>
-  </si>
-  <si>
-    <t>Copy your fork's HTTP URL on the right sidebar.</t>
-  </si>
-  <si>
-    <t>Be in proper directory</t>
-  </si>
-  <si>
-    <t>New Clone</t>
-  </si>
-  <si>
-    <t>git clone &lt;URLFROMGITHUB&gt;</t>
-  </si>
-  <si>
-    <t>Go into the folder for the fork it created</t>
-  </si>
-  <si>
-    <t>cd patchwork</t>
-  </si>
-  <si>
-    <t>Step: Connect to the Original Repository</t>
-  </si>
-  <si>
-    <t> git remote add upstream https://github.com/jlord/patchwork.git</t>
-  </si>
-  <si>
-    <t>GitHub Page format</t>
-  </si>
-  <si>
-    <t>http://githubusername.github.io/repositoryname</t>
-  </si>
-  <si>
-    <t>Step: Create a branch</t>
-  </si>
-  <si>
-    <t>See current Branches</t>
-  </si>
-  <si>
-    <t>Create a Branch</t>
-  </si>
-  <si>
-    <t>git branch &lt;BRANCHNAME&gt;</t>
-  </si>
-  <si>
-    <t>CheckOut Branch (allows to work on it)</t>
-  </si>
-  <si>
-    <t>git checkout &lt;BRANCHNAME&gt;</t>
-  </si>
-  <si>
-    <t>GitHub Commands</t>
-  </si>
-  <si>
-    <t>Turn Git on for a folder</t>
-  </si>
-  <si>
-    <t>git init</t>
-  </si>
-  <si>
-    <t>Check status of changes to a repository</t>
-  </si>
-  <si>
-    <t> git status</t>
-  </si>
-  <si>
-    <t>View changes to files</t>
-  </si>
-  <si>
-    <t>git diff</t>
-  </si>
-  <si>
-    <t>Add a file's changes to be committed</t>
-  </si>
-  <si>
-    <t>git add &lt;FILENAME&gt;</t>
-  </si>
-  <si>
-    <t>To add all files changes</t>
-  </si>
-  <si>
-    <t>To commit (aka save) the changes you've added with a short message describing the changes</t>
-  </si>
-  <si>
-    <t>change your username set with Git, just do the same command you did earlier, but with the correct capitalization:</t>
-  </si>
-  <si>
-    <t>git config --global user.username &lt;USerNamE&gt;</t>
-  </si>
-  <si>
-    <t>Add remote connections</t>
-  </si>
-  <si>
-    <t>Set a URL to a remote</t>
-  </si>
-  <si>
-    <t>Pull in changes</t>
-  </si>
-  <si>
-    <t>git pull &lt;REMOTENAME&gt; &lt;BRANCHNAME&gt;</t>
-  </si>
-  <si>
-    <t>View remote connections</t>
-  </si>
-  <si>
-    <t>Push changes</t>
-  </si>
-  <si>
-    <t>git push &lt;REMOTENAME&gt; &lt;BRANCH&gt;</t>
-  </si>
-  <si>
-    <t> create and switch to a branch in one line:</t>
-  </si>
-  <si>
-    <t>git checkout -b &lt;BRANCHNAME&gt;</t>
-  </si>
-  <si>
-    <t>Create a new branch:</t>
-  </si>
-  <si>
-    <t>Move onto a branch:</t>
-  </si>
-  <si>
-    <t>List the branches:</t>
-  </si>
-  <si>
-    <t>git branch</t>
-  </si>
-  <si>
-    <t>Rename a branch you're currently on:</t>
-  </si>
-  <si>
-    <t>git branch -m &lt;NEWBRANCHNAME&gt;</t>
-  </si>
-  <si>
-    <t>Verify what branch you're working on</t>
-  </si>
-  <si>
-    <t>See changes to the remote before you pull in</t>
-  </si>
-  <si>
-    <t>git fetch --dry-run</t>
-  </si>
-  <si>
-    <t>Merge a branch into current branch</t>
-  </si>
-  <si>
-    <t>git merge &lt;BRANCHNAME&gt;</t>
-  </si>
-  <si>
-    <t>Change the branch you're working on</t>
-  </si>
-  <si>
-    <t>Delete a local branch</t>
-  </si>
-  <si>
-    <t>git branch -d &lt;BRANCHNAME&gt;</t>
-  </si>
-  <si>
-    <t>Delete a remote branch</t>
-  </si>
-  <si>
-    <t>git push &lt;REMOTENAME&gt; --delete &lt;BRANCHNAME&gt;</t>
-  </si>
-  <si>
-    <t>Pull from a remote branch</t>
-  </si>
-  <si>
-    <t>Step: Merge Locally</t>
-  </si>
-  <si>
-    <t>move into the branch you want to merge into </t>
-  </si>
-  <si>
-    <t> git checkout gh-pages</t>
-  </si>
-  <si>
-    <t>ell Git what branch you want to merge in</t>
-  </si>
-  <si>
-    <t>Tidy up by deleting your feature branch now that it has been merged</t>
-  </si>
-  <si>
-    <t>delete the branch from your fork on GitHub:</t>
-  </si>
-  <si>
-    <t>Step: Pull from Upstream</t>
-  </si>
-  <si>
-    <t>To pull from the original upstream:</t>
-  </si>
-  <si>
-    <t>git pull upstream gh-pages</t>
-  </si>
-  <si>
-    <t>Repository</t>
-  </si>
-  <si>
-    <t>"Database" of all the branches and commits of a single project</t>
-  </si>
-  <si>
-    <t>Branch</t>
-  </si>
-  <si>
-    <t>Alternative state or line of development for a repository.</t>
-  </si>
-  <si>
-    <t>Merge</t>
-  </si>
-  <si>
-    <t>Merging two (or more) branches into a single branch, single truth.</t>
-  </si>
-  <si>
-    <t>Clone</t>
-  </si>
-  <si>
-    <t>Creating a local copy of the remote repository.</t>
-  </si>
-  <si>
-    <t>Origin</t>
-  </si>
-  <si>
-    <t>Common alias for the remote repository which the local clone was created from</t>
-  </si>
-  <si>
-    <t>Main / Master</t>
-  </si>
-  <si>
-    <t>Common name for the root branch, which is the central source of truth.</t>
-  </si>
-  <si>
-    <t>Stage</t>
-  </si>
-  <si>
-    <t>Choosing which files will be part of the new commit</t>
-  </si>
-  <si>
-    <t>Commit</t>
-  </si>
-  <si>
-    <t>A saved snapshot of staged changes made to the file(s) in the repository.</t>
-  </si>
-  <si>
-    <t>HEAD</t>
-  </si>
-  <si>
-    <t>Shorthand for the current commit your local repository is currently on.</t>
-  </si>
-  <si>
-    <t>Push</t>
-  </si>
-  <si>
-    <t>Pushing means sending your changes to the remote repository for everyone to see</t>
-  </si>
-  <si>
-    <t>Pull </t>
-  </si>
-  <si>
-    <t>Pulling means getting everybody else's changes to your local repository</t>
-  </si>
-  <si>
-    <t>Pull Request </t>
-  </si>
-  <si>
-    <t>Mechanism to review &amp; approve your changes before merging to main/master</t>
-  </si>
-  <si>
-    <t>https://intellipaat.com/blog/tutorial/devops-tutorial/git-commands/</t>
-  </si>
-  <si>
-    <t>https://www.kdnuggets.com/2022/06/14-essential-git-commands-data-scientists.html</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>1. Initialization</t>
-  </si>
-  <si>
-    <t>Initialize the Git version control system in the current directory</t>
-  </si>
-  <si>
-    <t>initialize Git in a specific directory</t>
-  </si>
-  <si>
-    <t>git init &lt;directory&gt;</t>
-  </si>
-  <si>
-    <t>2. Clone</t>
-  </si>
-  <si>
-    <t>copy all of the project files from a remote server to the local machine</t>
-  </si>
-  <si>
-    <t>also add a remote name as `origin` to sync files with the remote server.</t>
-  </si>
-  <si>
-    <t>requires HTTPS link and for secure connection SSH link</t>
-  </si>
-  <si>
-    <t>git clone &lt;HTTPS/SSH&gt;</t>
-  </si>
-  <si>
-    <t>3. Adding Remote</t>
-  </si>
-  <si>
-    <t>connect to a single or multiple remote servers by adding the name of the remote and HTTPS/SSH address</t>
-  </si>
-  <si>
-    <t>git remote add &lt;remote name&gt; &lt;HTTPS/SSH</t>
-  </si>
-  <si>
-    <t>4. Create Branch</t>
-  </si>
-  <si>
-    <t>work on a new feature or debug the code</t>
-  </si>
-  <si>
-    <t>allows you to work in isolation without disturbing the `main` branch</t>
-  </si>
-  <si>
-    <t>git checkout -b &lt;branch-name&gt;</t>
-  </si>
-  <si>
-    <t>Create a new branch using the checkout command with the `-b` tag and branch name.</t>
-  </si>
-  <si>
-    <t>git switch -c &lt;branch-name&gt;</t>
-  </si>
-  <si>
-    <t>use switch with `-c` tag and branch name</t>
-  </si>
-  <si>
-    <t>git branch &lt;branch-name&gt;</t>
-  </si>
-  <si>
-    <t>use branch command </t>
-  </si>
-  <si>
-    <t>5. Switch Branch</t>
-  </si>
-  <si>
-    <t>switch a branch from current to a different branch, you can use the checkout or switch command followed by branch name</t>
-  </si>
-  <si>
-    <t>git checkout &lt;branch-name&gt;</t>
-  </si>
-  <si>
-    <t>git switch &lt;branch-name&gt;</t>
-  </si>
-  <si>
-    <t>6. Pull</t>
-  </si>
-  <si>
-    <t>sync changes with a remote server</t>
-  </si>
-  <si>
-    <t>git pull</t>
-  </si>
-  <si>
-    <t>pull changes from the remote to the local repository</t>
-  </si>
-  <si>
-    <t>git pull &lt;remote name&gt; &lt;branch&gt;</t>
-  </si>
-  <si>
-    <t>add a remote name followed by a branch name to pull a single branch</t>
-  </si>
-  <si>
-    <t>pull command fetches the changes and merges them with the current branch</t>
-  </si>
-  <si>
-    <t>git pull --rebase origin master</t>
-  </si>
-  <si>
-    <t>To rebase, instead of merge, you can add the `--rebase` flag before the remote name and branch</t>
-  </si>
-  <si>
-    <t>you can add the `--rebase` flag before the remote name and branch</t>
-  </si>
-  <si>
-    <t>7. Add</t>
-  </si>
-  <si>
-    <t>git add &lt;file-name&gt;</t>
-  </si>
-  <si>
-    <t>add files into the staging area. It requires the filename or list of file names.</t>
-  </si>
-  <si>
-    <t>add all files using the `.` or `-A` flag</t>
-  </si>
-  <si>
-    <t>8. Commit</t>
-  </si>
-  <si>
-    <t>After adding files to the staging area</t>
-  </si>
-  <si>
-    <t>create a version by using the commit command</t>
-  </si>
-  <si>
-    <t>git commit -m "Title" -m "Description"</t>
-  </si>
-  <si>
-    <t>requires the title of the commit by using the `-m` flag</t>
-  </si>
-  <si>
-    <t>configured your username and email before committing changes</t>
-  </si>
-  <si>
-    <t>git config --global user.name &lt;username&gt;</t>
-  </si>
-  <si>
-    <t>git config --global user.email &lt;youremail@yourdomain.com&gt;</t>
-  </si>
-  <si>
-    <t>9. Push</t>
-  </si>
-  <si>
-    <t>sync local changes to remote servers </t>
-  </si>
-  <si>
-    <t>push the changes to the remote repository</t>
-  </si>
-  <si>
-    <t>git push</t>
-  </si>
-  <si>
-    <t>pushing changes to a specific remote server and branche</t>
-  </si>
-  <si>
-    <t>git push &lt;remote name&gt; &lt;branch-name&gt;</t>
-  </si>
-  <si>
-    <t>10. Undo Commit</t>
-  </si>
-  <si>
-    <t>Git revert undoes the changes back to a specific commit and adds it as a new commit, keeping the log intact</t>
-  </si>
-  <si>
-    <t>git revert &lt;commit&gt;</t>
-  </si>
-  <si>
-    <t>provide a hash of a specific commit</t>
-  </si>
-  <si>
-    <t>git reset &lt;commit&gt;</t>
-  </si>
-  <si>
-    <t>undo changes</t>
-  </si>
-  <si>
-    <t>reset the changes back to a specific commit</t>
-  </si>
-  <si>
-    <t>iscarding all commits made after.</t>
-  </si>
-  <si>
-    <t>command is discouraged as it modifies your git log history.</t>
-  </si>
-  <si>
-    <t>11. Merge</t>
-  </si>
-  <si>
-    <t>git merge &lt;branch&gt;</t>
-  </si>
-  <si>
-    <t>merge the changes of the specific branch into the current branch</t>
-  </si>
-  <si>
-    <t>12. Log</t>
-  </si>
-  <si>
-    <t>check the complete history of previous commits</t>
-  </si>
-  <si>
-    <t>git log</t>
-  </si>
-  <si>
-    <t>git log -</t>
-  </si>
-  <si>
-    <t>show the most recent logs, you can add `-` followed by the number</t>
-  </si>
-  <si>
-    <t>git log --author=”&lt;pattern&gt;”</t>
-  </si>
-  <si>
-    <t>heck the commits made by specific authors.</t>
-  </si>
-  <si>
-    <t>13. Difference</t>
-  </si>
-  <si>
-    <t>display the comparison between uncommitted changes with the current commit</t>
-  </si>
-  <si>
-    <t>git diff &lt;commit1&gt; &lt;commit2&gt;</t>
-  </si>
-  <si>
-    <t>comparing two different commits</t>
-  </si>
-  <si>
-    <t>git diff &lt;branch1&gt; &lt;branch2&gt;</t>
-  </si>
-  <si>
-    <t>comparing two branches</t>
-  </si>
-  <si>
-    <t>14. Status</t>
-  </si>
-  <si>
-    <t>displays the current status of the working directory</t>
-  </si>
-  <si>
-    <t>changes to be committed, unmerged paths, changes not staged for commit, and the list of untracked files.</t>
-  </si>
 </sst>
 </file>
 
@@ -4190,7 +3209,7 @@
     <numFmt numFmtId="168" formatCode="[$-409]hh:mm:ss\ AM/PM;@"/>
     <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4337,12 +3356,6 @@
       <color rgb="FF05192D"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333935"/>
-      <name val="Courier New"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="12">
@@ -5016,7 +4029,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5237,13 +4250,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="4"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6586,7 +5592,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{35DFF4D0-144D-43E3-9D60-4CB5156E994B}" type="CELLRANGE">
+                    <a:fld id="{3F484487-8E1C-4D50-BC7F-F3A06BCF50F0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6619,8 +5625,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{76FCFD6C-64C0-4926-BFAD-2169E636B083}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{D19876B4-3E09-453B-9E18-D35C95BF6776}" type="CELLRANGE">
+                      <a:rPr lang="en-CA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -6638,6 +5644,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -6652,8 +5659,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{21807387-47EA-4EBA-96E4-D4A3BEA3216A}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{14E3813F-B053-479E-BA1F-1EE46AF2CB26}" type="CELLRANGE">
+                      <a:rPr lang="en-CA"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -6671,6 +5678,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -8596,40 +7604,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>350</c:v>
+                  <c:v>761</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>725</c:v>
+                  <c:v>626</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>289</c:v>
+                  <c:v>261</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>616</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>610</c:v>
+                  <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>242</c:v>
+                  <c:v>872</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>378</c:v>
+                  <c:v>764</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>663</c:v>
+                  <c:v>266</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>737</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>814</c:v>
+                  <c:v>863</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>952</c:v>
+                  <c:v>574</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>126</c:v>
+                  <c:v>461</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8715,40 +7723,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>201</c:v>
+                  <c:v>804</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>479</c:v>
+                  <c:v>983</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>307</c:v>
+                  <c:v>396</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>216</c:v>
+                  <c:v>753</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>614</c:v>
+                  <c:v>561</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>606</c:v>
+                  <c:v>454</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>794</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>871</c:v>
+                  <c:v>939</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>360</c:v>
+                  <c:v>822</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>238</c:v>
+                  <c:v>573</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>704</c:v>
+                  <c:v>411</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>238</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8834,40 +7842,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>486</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>870</c:v>
+                  <c:v>562</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>448</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>376</c:v>
+                  <c:v>976</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>324</c:v>
+                  <c:v>659</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>281</c:v>
+                  <c:v>415</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>704</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>592</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>189</c:v>
+                  <c:v>406</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>437</c:v>
+                  <c:v>927</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>964</c:v>
+                  <c:v>474</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>445</c:v>
+                  <c:v>822</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23794,280 +22802,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>286471</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>85790</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD514064-B33D-52BF-AA4A-3A4CA0A316E2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1219200" y="5143500"/>
-          <a:ext cx="5163271" cy="466790"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>29089</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>76264</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D13C4DB-4D80-C091-1E65-E745EA83E7A1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1219200" y="6096000"/>
-          <a:ext cx="3686689" cy="457264"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>238754</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>152528</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{302983CE-4AF7-697B-6571-4D52627E3EFF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1219200" y="6667500"/>
-          <a:ext cx="4505954" cy="914528"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>343714</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>48057</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{267973F5-CED4-31BF-6020-5F9D3EE165D5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="190500"/>
-          <a:ext cx="5830114" cy="3096057"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>277029</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>162320</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D06841A6-D094-71C8-4DF0-D129895AA85A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="3429000"/>
-          <a:ext cx="5763429" cy="2829320"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>86588</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>57956</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3FA73EC-44A1-C5B2-1D9F-4CE15A48430E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="6667500"/>
-          <a:ext cx="6182588" cy="5772956"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -26863,7 +25597,7 @@
       <c r="A47" t="s">
         <v>326</v>
       </c>
-      <c r="B47" s="143" t="s">
+      <c r="B47" s="140" t="s">
         <v>359</v>
       </c>
       <c r="C47">
@@ -26880,7 +25614,7 @@
       <c r="A48" t="s">
         <v>327</v>
       </c>
-      <c r="B48" s="143"/>
+      <c r="B48" s="140"/>
       <c r="D48" s="24" t="e">
         <f>#REF!-C48</f>
         <v>#REF!</v>
@@ -26890,7 +25624,7 @@
       <c r="A49" t="s">
         <v>328</v>
       </c>
-      <c r="B49" s="143"/>
+      <c r="B49" s="140"/>
       <c r="C49">
         <v>3200</v>
       </c>
@@ -26903,7 +25637,7 @@
       <c r="A50" t="s">
         <v>329</v>
       </c>
-      <c r="B50" s="143"/>
+      <c r="B50" s="140"/>
       <c r="C50">
         <v>1400</v>
       </c>
@@ -26916,7 +25650,7 @@
       <c r="A51" t="s">
         <v>330</v>
       </c>
-      <c r="B51" s="143"/>
+      <c r="B51" s="140"/>
       <c r="D51" s="24" t="e">
         <f>#REF!-C51</f>
         <v>#REF!</v>
@@ -26926,7 +25660,7 @@
       <c r="A52" t="s">
         <v>331</v>
       </c>
-      <c r="B52" s="143"/>
+      <c r="B52" s="140"/>
       <c r="C52">
         <v>7000</v>
       </c>
@@ -28101,7 +26835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348513CB-BBB7-4894-940B-D579B7E8211C}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -29083,10 +27817,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="145"/>
+      <c r="B1" s="142"/>
       <c r="D1" t="s">
         <v>459</v>
       </c>
@@ -29396,37 +28130,37 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="146">
+      <c r="A31" s="143">
         <v>0</v>
       </c>
-      <c r="B31" s="147"/>
-      <c r="C31" s="147" t="s">
+      <c r="B31" s="144"/>
+      <c r="C31" s="144" t="s">
         <v>535</v>
       </c>
-      <c r="D31" s="152"/>
+      <c r="D31" s="149"/>
       <c r="M31" s="84" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="148" t="s">
+      <c r="A32" s="145" t="s">
         <v>534</v>
       </c>
-      <c r="B32" s="149"/>
-      <c r="C32" s="153" t="s">
+      <c r="B32" s="146"/>
+      <c r="C32" s="150" t="s">
         <v>475</v>
       </c>
-      <c r="D32" s="154"/>
+      <c r="D32" s="151"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="150" t="s">
+      <c r="A33" s="147" t="s">
         <v>477</v>
       </c>
-      <c r="B33" s="151"/>
-      <c r="C33" s="151" t="s">
+      <c r="B33" s="148"/>
+      <c r="C33" s="148" t="s">
         <v>476</v>
       </c>
-      <c r="D33" s="155"/>
+      <c r="D33" s="152"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" s="55"/>
@@ -29982,11 +28716,11 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="153" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
       <c r="F2" t="s">
         <v>548</v>
       </c>
@@ -30164,18 +28898,18 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="157" t="s">
+      <c r="B30" s="154" t="s">
         <v>556</v>
       </c>
-      <c r="C30" s="157"/>
+      <c r="C30" s="154"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="157"/>
-      <c r="C31" s="157"/>
+      <c r="B31" s="154"/>
+      <c r="C31" s="154"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="157"/>
-      <c r="C32" s="157"/>
+      <c r="B32" s="154"/>
+      <c r="C32" s="154"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -30639,11 +29373,11 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="140"/>
-      <c r="C3" s="141"/>
+      <c r="B3" s="137"/>
+      <c r="C3" s="138"/>
       <c r="E3" t="s">
         <v>58</v>
       </c>
@@ -30819,10 +29553,10 @@
       <c r="C19" s="22">
         <v>140000</v>
       </c>
-      <c r="I19" s="142" t="s">
+      <c r="I19" s="139" t="s">
         <v>71</v>
       </c>
-      <c r="J19" s="142"/>
+      <c r="J19" s="139"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
@@ -31053,10 +29787,10 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="139" t="s">
+      <c r="A38" s="136" t="s">
         <v>91</v>
       </c>
-      <c r="B38" s="141"/>
+      <c r="B38" s="138"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
@@ -31214,7 +29948,7 @@
       </c>
       <c r="D2" s="4">
         <f ca="1">TODAY()</f>
-        <v>45303</v>
+        <v>45450</v>
       </c>
       <c r="E2" t="s">
         <v>629</v>
@@ -31229,7 +29963,7 @@
       </c>
       <c r="D4" s="124">
         <f ca="1">NOW()</f>
-        <v>45303.519719560187</v>
+        <v>45450.720647685186</v>
       </c>
       <c r="E4" t="s">
         <v>630</v>
@@ -31273,7 +30007,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="159">
+      <c r="A10" s="156">
         <v>45293</v>
       </c>
       <c r="C10" s="125" t="s">
@@ -31288,7 +30022,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="159"/>
+      <c r="A11" s="156"/>
       <c r="C11" s="125" t="s">
         <v>636</v>
       </c>
@@ -31301,7 +30035,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="159"/>
+      <c r="A12" s="156"/>
       <c r="C12" s="125" t="s">
         <v>638</v>
       </c>
@@ -31348,42 +30082,42 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="158">
+      <c r="A18" s="155">
         <f ca="1">NOW()</f>
-        <v>45303.519719560187</v>
+        <v>45450.720647685186</v>
       </c>
       <c r="C18" s="125" t="s">
         <v>649</v>
       </c>
       <c r="D18">
         <f ca="1">HOUR(A18)</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="158"/>
+      <c r="A19" s="155"/>
       <c r="C19" s="125" t="s">
         <v>650</v>
       </c>
       <c r="D19">
         <f ca="1">MINUTE(A18)</f>
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E19" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="158"/>
+      <c r="A20" s="155"/>
       <c r="C20" s="125" t="s">
         <v>651</v>
       </c>
       <c r="D20">
         <f ca="1">SECOND(A18)</f>
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="E20" t="s">
         <v>654</v>
@@ -31401,7 +30135,7 @@
       </c>
       <c r="D22">
         <f ca="1">NETWORKDAYS(B22,B23)</f>
-        <v>434</v>
+        <v>539</v>
       </c>
       <c r="E22" t="s">
         <v>658</v>
@@ -31416,7 +30150,7 @@
       </c>
       <c r="B23" s="4">
         <f ca="1">TODAY()</f>
-        <v>45303</v>
+        <v>45450</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -31431,7 +30165,7 @@
       </c>
       <c r="D25">
         <f ca="1">NETWORKDAYS(B22,B23,B25:B26)</f>
-        <v>433</v>
+        <v>538</v>
       </c>
       <c r="E25" t="s">
         <v>661</v>
@@ -32063,11 +30797,11 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="142" t="s">
+      <c r="A4" s="139" t="s">
         <v>704</v>
       </c>
-      <c r="B4" s="142"/>
-      <c r="C4" s="142"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="139"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -32452,10 +31186,10 @@
       <c r="B4" t="s">
         <v>706</v>
       </c>
-      <c r="F4" s="156" t="s">
+      <c r="F4" s="153" t="s">
         <v>712</v>
       </c>
-      <c r="G4" s="156"/>
+      <c r="G4" s="153"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="6">
@@ -32625,11 +31359,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="142" t="s">
+      <c r="A3" s="139" t="s">
         <v>723</v>
       </c>
-      <c r="B3" s="142"/>
-      <c r="C3" s="142"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="139"/>
       <c r="D3" s="1" t="s">
         <v>720</v>
       </c>
@@ -32756,7 +31490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D15FBBEA-3662-46C5-B7AD-E74FACF2CD27}">
   <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
+    <sheetView topLeftCell="A41" workbookViewId="0">
       <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
@@ -32770,10 +31504,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="139" t="s">
         <v>724</v>
       </c>
-      <c r="B1" s="142"/>
+      <c r="B1" s="139"/>
       <c r="K1" t="s">
         <v>725</v>
       </c>
@@ -32968,10 +31702,10 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="142" t="s">
+      <c r="A24" s="139" t="s">
         <v>720</v>
       </c>
-      <c r="B24" s="142"/>
+      <c r="B24" s="139"/>
       <c r="F24" t="s">
         <v>733</v>
       </c>
@@ -33114,10 +31848,10 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="156" t="s">
+      <c r="A33" s="153" t="s">
         <v>734</v>
       </c>
-      <c r="B33" s="156"/>
+      <c r="B33" s="153"/>
       <c r="C33" s="85" t="s">
         <v>729</v>
       </c>
@@ -33196,7 +31930,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33234,19 +31968,19 @@
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(0,999)</f>
-        <v>350</v>
+        <v>761</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:D13" ca="1" si="0">RANDBETWEEN(0,999)</f>
-        <v>201</v>
+        <v>804</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>486</v>
+        <v>203</v>
       </c>
       <c r="E2" s="1">
         <f ca="1">SUM(B2:D2)</f>
-        <v>1037</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -33255,19 +31989,19 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B13" ca="1" si="1">RANDBETWEEN(0,999)</f>
-        <v>725</v>
+        <v>626</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>479</v>
+        <v>983</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>870</v>
+        <v>562</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E13" ca="1" si="2">SUM(B3:D3)</f>
-        <v>2074</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -33276,19 +32010,19 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>307</v>
+        <v>396</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>448</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>611</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -33297,19 +32031,19 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>616</v>
+        <v>74</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>216</v>
+        <v>753</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>376</v>
+        <v>976</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1208</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -33318,19 +32052,19 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>610</v>
+        <v>375</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>614</v>
+        <v>561</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>324</v>
+        <v>659</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1548</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -33339,19 +32073,19 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>242</v>
+        <v>872</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>606</v>
+        <v>454</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>281</v>
+        <v>415</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1129</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -33360,19 +32094,19 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
-        <v>378</v>
+        <v>764</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>794</v>
+        <v>149</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>704</v>
+        <v>66</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1876</v>
+        <v>979</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -33381,19 +32115,19 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
-        <v>663</v>
+        <v>266</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>871</v>
+        <v>939</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>592</v>
+        <v>137</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2126</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -33402,19 +32136,19 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>737</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>360</v>
+        <v>822</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>189</v>
+        <v>406</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>558</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -33423,19 +32157,19 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="1"/>
-        <v>814</v>
+        <v>863</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>238</v>
+        <v>573</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>437</v>
+        <v>927</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1489</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -33444,19 +32178,19 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="1"/>
-        <v>952</v>
+        <v>574</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>704</v>
+        <v>411</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>964</v>
+        <v>474</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2620</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -33465,19 +32199,19 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="1"/>
-        <v>126</v>
+        <v>461</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>238</v>
+        <v>184</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>445</v>
+        <v>822</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>809</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -33486,19 +32220,19 @@
       </c>
       <c r="B14" s="1">
         <f ca="1">SUM(B2:B13)</f>
-        <v>5774</v>
+        <v>6634</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" ref="C14:E14" ca="1" si="3">SUM(C2:C13)</f>
-        <v>5628</v>
+        <v>7029</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>5683</v>
+        <v>6095</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>17085</v>
+        <v>19758</v>
       </c>
     </row>
   </sheetData>
@@ -33512,7 +32246,7 @@
   <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34011,31 +32745,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A2201A-7642-4E98-A144-6AB4BBF3ADF8}">
-  <dimension ref="B2:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>762</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED979EC-280D-4AFA-A486-D3791F0D358F}">
   <dimension ref="A1:G149"/>
@@ -35206,1730 +33915,6 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{061159D6-E56A-476A-BEB5-F2F3FDC1C5CB}">
-  <dimension ref="B2:D157"/>
-  <sheetViews>
-    <sheetView topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="D157" sqref="D157"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="137" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="138"/>
-      <c r="C3" s="138" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="137" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C6" s="138" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="137" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C9" s="138" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="137" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C12" s="138" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="137" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C15" s="138" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="137" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="138" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="138" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="137" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="138" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="137" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C25" s="138" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="137" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C28" s="138" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="137" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C31" s="138" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="137" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C34" s="138" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="137" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C37" s="138" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="137" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C40" s="138" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="137" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C43" s="138" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="137" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C46" s="138" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C51" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C55" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D57" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C59" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D61" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C63" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D65" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C67" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D69" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C71" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D73" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C75" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D77" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C79" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D81" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C83" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D85" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C87" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D89" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C91" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D93" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C95" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D97" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C99" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D101" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C103" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D105" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C107" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D109" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C111" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D113" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C115" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D117" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C119" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D121" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C123" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D125" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C127" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D129" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C131" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D133" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="135" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C135" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="137" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D137" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="139" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C139" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="141" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D141" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="143" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C143" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D145" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C147" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D149" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="151" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C151" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="153" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D153" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="155" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C155" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="157" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D157" t="s">
-        <v>902</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB732D4E-5D06-4AAF-9138-F4B1AD8C5ECB}">
-  <dimension ref="A2:B36"/>
-  <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>957</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15B03373-5C23-472E-B105-689B95C666AD}">
-  <dimension ref="A1:J104"/>
-  <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>959</v>
-      </c>
-      <c r="J2" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>888</v>
-      </c>
-      <c r="F6" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>964</v>
-      </c>
-      <c r="F8" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>976</v>
-      </c>
-      <c r="F26" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F27" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>978</v>
-      </c>
-      <c r="F28" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F29" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>980</v>
-      </c>
-      <c r="F30" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>988</v>
-      </c>
-      <c r="F43" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>990</v>
-      </c>
-      <c r="F45" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F46" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>993</v>
-      </c>
-      <c r="F47" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>997</v>
-      </c>
-      <c r="F50" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F51" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>846</v>
-      </c>
-      <c r="F52" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F64" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F69" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F70" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>1013</v>
-      </c>
-      <c r="F71" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>1016</v>
-      </c>
-      <c r="F76" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F77" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>1018</v>
-      </c>
-      <c r="F78" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G79" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G80" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G81" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
-        <v>1024</v>
-      </c>
-      <c r="F84" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
-        <v>1028</v>
-      </c>
-      <c r="F87" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
-        <v>1029</v>
-      </c>
-      <c r="F89" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
-        <v>1031</v>
-      </c>
-      <c r="F91" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
-        <v>892</v>
-      </c>
-      <c r="F95" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
-        <v>1035</v>
-      </c>
-      <c r="F97" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
-        <v>1037</v>
-      </c>
-      <c r="F99" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B103" t="s">
-        <v>801</v>
-      </c>
-      <c r="F103" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F104" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{722A2466-BA8A-46DC-AD71-C06A090B9013}">
-  <dimension ref="A2:O61"/>
-  <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>765</v>
-      </c>
-      <c r="B5" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="157" t="s">
-        <v>771</v>
-      </c>
-      <c r="E18" s="157"/>
-      <c r="F18" s="157"/>
-      <c r="G18" s="157"/>
-      <c r="H18" s="157"/>
-      <c r="I18" s="157"/>
-      <c r="J18" s="157"/>
-      <c r="K18" s="157"/>
-      <c r="L18" s="157"/>
-      <c r="M18" s="157"/>
-      <c r="N18" s="157"/>
-      <c r="O18" s="157"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D19" s="157"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="157"/>
-      <c r="G19" s="157"/>
-      <c r="H19" s="157"/>
-      <c r="I19" s="157"/>
-      <c r="J19" s="157"/>
-      <c r="K19" s="157"/>
-      <c r="L19" s="157"/>
-      <c r="M19" s="157"/>
-      <c r="N19" s="157"/>
-      <c r="O19" s="157"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D20" s="157"/>
-      <c r="E20" s="157"/>
-      <c r="F20" s="157"/>
-      <c r="G20" s="157"/>
-      <c r="H20" s="157"/>
-      <c r="I20" s="157"/>
-      <c r="J20" s="157"/>
-      <c r="K20" s="157"/>
-      <c r="L20" s="157"/>
-      <c r="M20" s="157"/>
-      <c r="N20" s="157"/>
-      <c r="O20" s="157"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D42" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C44" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D46" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="86" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C52" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C54" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C56" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>783</v>
-      </c>
-      <c r="E59" s="86" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>784</v>
-      </c>
-      <c r="E61" s="86" t="s">
-        <v>786</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D18:O20"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A48" r:id="rId1" xr:uid="{9349A1E6-12AD-4928-B9AF-169C31AFA102}"/>
-    <hyperlink ref="E59" r:id="rId2" xr:uid="{943F0B09-3C8F-4951-942E-C1C6840ADD82}"/>
-    <hyperlink ref="E61" r:id="rId3" xr:uid="{8E43BF94-4BAA-4C05-B13A-580CAF10E3BF}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId4"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5EB33C-ABB9-4279-8CC3-EBB3C1695144}">
-  <dimension ref="B2:N47"/>
-  <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E8" t="s">
-        <v>792</v>
-      </c>
-      <c r="H8" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
-        <v>794</v>
-      </c>
-      <c r="H12" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E16" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E20" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E24" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E32" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="34" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="37" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="D37" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="39" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="E39" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="41" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="D41" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="43" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="E43" t="s">
-        <v>839</v>
-      </c>
-      <c r="H43" t="s">
-        <v>844</v>
-      </c>
-      <c r="L43" t="s">
-        <v>845</v>
-      </c>
-      <c r="N43" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="45" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="D45" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="47" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="E47" t="s">
-        <v>841</v>
-      </c>
-      <c r="K47" t="s">
-        <v>841</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3FD9700-D756-4CF8-A135-1D1C60C98499}">
-  <dimension ref="A2:L84"/>
-  <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="I89" sqref="I89"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>851</v>
-      </c>
-      <c r="B2" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L9" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C68" t="s">
-        <v>849</v>
-      </c>
-      <c r="H68" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D70" t="s">
-        <v>856</v>
-      </c>
-      <c r="I70" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D72" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E74" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D76" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E78" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C82" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C84" t="s">
-        <v>859</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD099E31-51BD-47A8-9D11-24A4CB921B10}">
-  <dimension ref="A2:K33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>868</v>
-      </c>
-      <c r="D11" t="s">
-        <v>867</v>
-      </c>
-      <c r="H11" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>877</v>
-      </c>
-      <c r="K29" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
-        <v>860</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F7EDD8-BB24-41B8-B355-009A525B76D6}">
-  <dimension ref="A1:D16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>878</v>
-      </c>
-      <c r="C1" s="136" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>885</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D3E79E-249E-44AE-BEB3-5CA519593485}">
-  <dimension ref="B2:D24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>933</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0471190-D61F-4F43-9B92-64E149A93E74}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -37244,15 +34229,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="139" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
       <c r="H1" t="s">
         <v>225</v>
       </c>
@@ -39342,11 +36327,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="139" t="s">
         <v>268</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -39402,11 +36387,11 @@
       <c r="C6" s="5"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="142" t="s">
+      <c r="A8" s="139" t="s">
         <v>269</v>
       </c>
-      <c r="B8" s="142"/>
-      <c r="C8" s="142"/>
+      <c r="B8" s="139"/>
+      <c r="C8" s="139"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
@@ -39421,11 +36406,11 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="142" t="s">
+      <c r="A11" s="139" t="s">
         <v>270</v>
       </c>
-      <c r="B11" s="142"/>
-      <c r="C11" s="142"/>
+      <c r="B11" s="139"/>
+      <c r="C11" s="139"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
@@ -39440,11 +36425,11 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="142" t="s">
+      <c r="A14" s="139" t="s">
         <v>271</v>
       </c>
-      <c r="B14" s="142"/>
-      <c r="C14" s="142"/>
+      <c r="B14" s="139"/>
+      <c r="C14" s="139"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
@@ -39523,11 +36508,11 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="142" t="s">
+      <c r="B28" s="139" t="s">
         <v>303</v>
       </c>
-      <c r="C28" s="142"/>
-      <c r="D28" s="142"/>
+      <c r="C28" s="139"/>
+      <c r="D28" s="139"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
